--- a/public/Report/SalesData.xlsx
+++ b/public/Report/SalesData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Order ID</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>903b70</t>
+  </si>
+  <si>
+    <t>"652d7d2b23ad4ab6eee7cf68"</t>
+  </si>
+  <si>
+    <t>756fa7</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>"652e23c5f050ed9971f25b75"</t>
+  </si>
+  <si>
+    <t>pay_MpAUrfnJCKBalV</t>
   </si>
 </sst>
 </file>
@@ -442,12 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="1" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,6 +564,46 @@
       </c>
       <c r="F5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45215.75902229166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>20011</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45216.252652766205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/Report/SalesData.xlsx
+++ b/public/Report/SalesData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
   <si>
     <t>Order ID</t>
   </si>
@@ -31,55 +31,187 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>"652cf674720c1a8f7ca492af"</t>
-  </si>
-  <si>
-    <t>"65239f8e893156c981ee9989"</t>
-  </si>
-  <si>
-    <t>59fcba</t>
+    <t>"65334df87b06ddc866a5fb9c"</t>
+  </si>
+  <si>
+    <t>"65290c6b004f2ab9a4113267"</t>
+  </si>
+  <si>
+    <t>59546c</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>"652d56420941ba51f11a5616"</t>
-  </si>
-  <si>
-    <t>"65200f304b8a3d10ce36e4c8"</t>
-  </si>
-  <si>
-    <t>pay_MovYdKIjVyYrWR</t>
+    <t>"653383f47b06ddc866a5fd4d"</t>
+  </si>
+  <si>
+    <t>"653383c07b06ddc866a5fcee"</t>
+  </si>
+  <si>
+    <t>8c0fec</t>
+  </si>
+  <si>
+    <t>"653384757b06ddc866a5fdff"</t>
+  </si>
+  <si>
+    <t>pay_MqmZQKReJ3Ujkl</t>
+  </si>
+  <si>
+    <t>upi</t>
+  </si>
+  <si>
+    <t>"6533856c7b06ddc866a5ff85"</t>
+  </si>
+  <si>
+    <t>"653384837b06ddc866a5fe19"</t>
+  </si>
+  <si>
+    <t>208c31</t>
+  </si>
+  <si>
+    <t>"6533e78a875f76979ce343f6"</t>
+  </si>
+  <si>
+    <t>"6533a6d751883c7edf0b886f"</t>
+  </si>
+  <si>
+    <t>pay_MqtmGcKZpF2uQ6</t>
   </si>
   <si>
     <t>netbanking</t>
   </si>
   <si>
-    <t>"652d56ab0941ba51f11a56a2"</t>
-  </si>
-  <si>
-    <t>da0f88</t>
-  </si>
-  <si>
-    <t>"652d57030941ba51f11a56ff"</t>
-  </si>
-  <si>
-    <t>903b70</t>
-  </si>
-  <si>
-    <t>"652d7d2b23ad4ab6eee7cf68"</t>
-  </si>
-  <si>
-    <t>756fa7</t>
-  </si>
-  <si>
-    <t>Wallet</t>
-  </si>
-  <si>
-    <t>"652e23c5f050ed9971f25b75"</t>
-  </si>
-  <si>
-    <t>pay_MpAUrfnJCKBalV</t>
+    <t>"6533eac75ec9cd47a339e715"</t>
+  </si>
+  <si>
+    <t>5af314</t>
+  </si>
+  <si>
+    <t>"6533ec716df387f7d72ebed1"</t>
+  </si>
+  <si>
+    <t>3b93ae</t>
+  </si>
+  <si>
+    <t>"65376dec0710a07008e4be08"</t>
+  </si>
+  <si>
+    <t>"6530e98312220339ef77b4d0"</t>
+  </si>
+  <si>
+    <t>pay_MrxNCIJxNBH0FR</t>
+  </si>
+  <si>
+    <t>"6538311b9554fdaa1561d54f"</t>
+  </si>
+  <si>
+    <t>"653770af0710a07008e4be93"</t>
+  </si>
+  <si>
+    <t>e0b2d4</t>
+  </si>
+  <si>
+    <t>"6538af69b4c0ae01d1e91904"</t>
+  </si>
+  <si>
+    <t>"6533ed78f3de9ebd8317c651"</t>
+  </si>
+  <si>
+    <t>08d40d</t>
+  </si>
+  <si>
+    <t>"6538b02bb4c0ae01d1e91969"</t>
+  </si>
+  <si>
+    <t>93b5e9</t>
+  </si>
+  <si>
+    <t>"6538b0989a185eba3875e9b8"</t>
+  </si>
+  <si>
+    <t>ad7b5e</t>
+  </si>
+  <si>
+    <t>"6538b1a39a185eba3875ea23"</t>
+  </si>
+  <si>
+    <t>125521</t>
+  </si>
+  <si>
+    <t>"6538bc4809d31e0e2af24cd3"</t>
+  </si>
+  <si>
+    <t>66c07c</t>
+  </si>
+  <si>
+    <t>"6538bd6109d31e0e2af24d3c"</t>
+  </si>
+  <si>
+    <t>1f8c62</t>
+  </si>
+  <si>
+    <t>"6538bdad09d31e0e2af24d95"</t>
+  </si>
+  <si>
+    <t>a444c4</t>
+  </si>
+  <si>
+    <t>"6538be8f09d31e0e2af24e04"</t>
+  </si>
+  <si>
+    <t>64e083</t>
+  </si>
+  <si>
+    <t>"6538bee009d31e0e2af24e87"</t>
+  </si>
+  <si>
+    <t>63edfd</t>
+  </si>
+  <si>
+    <t>"654079c904ba888738baea0f"</t>
+  </si>
+  <si>
+    <t>"6538c122c998600d86930b8b"</t>
+  </si>
+  <si>
+    <t>5472a8</t>
+  </si>
+  <si>
+    <t>"6541286a04ba888738baf3fb"</t>
+  </si>
+  <si>
+    <t>"6541282904ba888738baf3c3"</t>
+  </si>
+  <si>
+    <t>pay_MusPyWRKpCVKe2</t>
+  </si>
+  <si>
+    <t>"6542933f04ba888738bb0299"</t>
+  </si>
+  <si>
+    <t>"6540893304ba888738baeb74"</t>
+  </si>
+  <si>
+    <t>33233f</t>
+  </si>
+  <si>
+    <t>"6542937304ba888738bb02fe"</t>
+  </si>
+  <si>
+    <t>7c8470</t>
+  </si>
+  <si>
+    <t>"654293c204ba888738bb0342"</t>
+  </si>
+  <si>
+    <t>pay_MvIpZoUCfE8qMm</t>
+  </si>
+  <si>
+    <t>"65543fda04ba888738bb40eb"</t>
+  </si>
+  <si>
+    <t>4a7537</t>
   </si>
 </sst>
 </file>
@@ -457,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F49"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -494,13 +626,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>45215.35986894676</v>
+        <v>45220.17028925926</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -514,36 +646,36 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>104464</v>
+        <v>39996</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>45215.64373597222</v>
+        <v>45220.33023553241</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>48500</v>
+        <v>7999.2</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45220.33173131944</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45215.644947187495</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,16 +683,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>154000</v>
+        <v>51200</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
-        <v>45215.64596645834</v>
+        <v>45220.33458579861</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -568,42 +700,882 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>45215.75902229166</v>
+        <v>45220.62530724537</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45220.634905555555</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45220.63983030093</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>6232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45223.299032106486</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45223.87736003472</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>50000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45224.25159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>2232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45224.25383277777</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45224.25509810185</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45224.25818606481</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>3200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45224.28973266204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45224.29298424769</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45224.293857557874</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45224.296470810186</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>80000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45224.297408750004</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>21000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45230.160856319446</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>6000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45230.67827210648</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>48000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45231.753324907404</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45231.75393078703</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>4000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45231.75484530092</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>19899</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45245.159570034724</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45220.17028925926</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>39996</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45220.33023553241</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>7999.2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45220.33173131944</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>51200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45220.33458579861</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>9000</v>
+      </c>
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>20011</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E30" s="1">
+        <v>45220.62530724537</v>
+      </c>
+      <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1">
-        <v>45216.252652766205</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>6000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45220.634905555555</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45220.63983030093</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>6232</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45223.299032106486</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>345</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45223.87736003472</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>50000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45224.25159</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>2232</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45224.25383277777</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>2232</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45224.25509810185</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45224.25818606481</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>3200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45224.28973266204</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45224.29298424769</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45224.293857557874</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>6000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45224.296470810186</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>80000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45224.297408750004</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>21000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45230.160856319446</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>6000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45230.67827210648</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>48000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45231.753324907404</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>4000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45231.75393078703</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>4000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45231.75484530092</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>19899</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45245.159570034724</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
